--- a/data/trans_orig/P14A98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A98-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48C0CFF9-054D-4C02-803A-A923D4A1E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB461382-C875-4DC5-9769-492463A26E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E19A3B9-8593-4ED9-B45E-534A9A1AC635}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3353E09-D12F-4068-9758-B185C8D22EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -147,37 +147,37 @@
     <t>84,1%</t>
   </si>
   <si>
-    <t>21,65%</t>
+    <t>29,38%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>49,25%</t>
+    <t>48,92%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>57,67%</t>
+    <t>56,81%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>78,35%</t>
+    <t>70,62%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>50,75%</t>
+    <t>51,08%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>42,33%</t>
+    <t>43,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -219,16 +219,16 @@
     <t>67,16%</t>
   </si>
   <si>
-    <t>22,48%</t>
+    <t>25,23%</t>
   </si>
   <si>
     <t>57,46%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>54,63%</t>
@@ -240,64 +240,64 @@
     <t>32,84%</t>
   </si>
   <si>
-    <t>77,52%</t>
+    <t>74,77%</t>
   </si>
   <si>
     <t>42,54%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
   </si>
   <si>
     <t>65,77%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>43,48%</t>
+    <t>39,32%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>56,52%</t>
+    <t>60,68%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A383920-C42D-42D6-A334-0D03D30ED8C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C5B6-05B7-4DEA-BB27-4DB5A61ED846}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5E305B-04DE-440D-A085-A9D9F62D20CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E33B4F-A48D-4851-A10E-4FB78A107337}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A98-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB461382-C875-4DC5-9769-492463A26E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71E2FC71-5338-4338-9D9F-E9037734E466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3353E09-D12F-4068-9758-B185C8D22EC4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6174861E-3F3D-4145-8881-191A419C86C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="89">
   <si>
     <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -90,7 +90,7 @@
     <t>89,46%</t>
   </si>
   <si>
-    <t>55,6%</t>
+    <t>56,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,7 +108,7 @@
     <t>10,54%</t>
   </si>
   <si>
-    <t>44,4%</t>
+    <t>43,59%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -147,157 +147,163 @@
     <t>84,1%</t>
   </si>
   <si>
-    <t>29,38%</t>
+    <t>34,18%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>48,92%</t>
+    <t>48,07%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>56,81%</t>
+    <t>63,09%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>70,62%</t>
+    <t>65,82%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>51,08%</t>
+    <t>51,93%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>43,19%</t>
+    <t>36,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2015 (Tasa respuesta: 0,32%)</t>
+    <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2016 (Tasa respuesta: 0,32%)</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
+    <t>27,77%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>47,31%</t>
+    <t>49,45%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
+    <t>72,23%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>52,69%</t>
+    <t>50,55%</t>
   </si>
   <si>
     <t>45,37%</t>
   </si>
   <si>
-    <t>86,59%</t>
+    <t>85,24%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>25,23%</t>
+    <t>24,03%</t>
   </si>
   <si>
     <t>57,46%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>54,63%</t>
   </si>
   <si>
-    <t>13,41%</t>
+    <t>14,76%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>74,77%</t>
+    <t>75,97%</t>
   </si>
   <si>
     <t>42,54%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
   <si>
     <t>65,77%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>39,32%</t>
+    <t>36,79%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>60,68%</t>
+    <t>63,21%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
   </si>
 </sst>
 </file>
@@ -709,7 +715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383C5B6-05B7-4DEA-BB27-4DB5A61ED846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F2A915-848B-44FB-9E74-7F5DF0C2107A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1454,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E33B4F-A48D-4851-A10E-4FB78A107337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A30CB1E-9CA2-4E1F-AC6B-23DA646C77E2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1581,7 +1587,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1596,7 +1602,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1608,10 +1614,10 @@
         <v>6679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1629,13 +1635,13 @@
         <v>845</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1650,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1659,13 +1665,13 @@
         <v>845</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,13 +1739,13 @@
         <v>2636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -1748,10 +1754,10 @@
         <v>4869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1763,13 +1769,13 @@
         <v>7505</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,10 +1790,10 @@
         <v>3174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -1799,13 +1805,13 @@
         <v>2381</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -1814,13 +1820,13 @@
         <v>5555</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2043,13 @@
         <v>7723</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2052,10 +2058,10 @@
         <v>8440</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2067,13 +2073,13 @@
         <v>16164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2094,13 @@
         <v>4019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2103,13 +2109,13 @@
         <v>2381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2118,13 +2124,13 @@
         <v>6400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
